--- a/static/uploads/formato_export.xlsx
+++ b/static/uploads/formato_export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERICK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\OneDrive\Documentos\GitHub\kahoot_web\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F78C1C-BE0F-43EB-920D-48152A1B55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D8E08-AA2D-4CF3-B8FF-0E95DCF1AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F53EE00A-EAFE-4BD9-9D0F-6DE6EADA16F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F53EE00A-EAFE-4BD9-9D0F-6DE6EADA16F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>tiempo que será respondido</t>
   </si>
   <si>
-    <t>V de verdadero</t>
-  </si>
-  <si>
-    <t>ALT de Alternativas</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT </t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526BC46E-534A-45A6-8653-3402D05397AF}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
